--- a/medicine/Enfance/Concours_littéraire_Lurelu/Concours_littéraire_Lurelu.xlsx
+++ b/medicine/Enfance/Concours_littéraire_Lurelu/Concours_littéraire_Lurelu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Concours_litt%C3%A9raire_Lurelu</t>
+          <t>Concours_littéraire_Lurelu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Concours littéraire Lurelu est un prix littéraire québécois annuel.
-Le concours est créé avec l'objectif d'encourager la relève en littérature jeunesse. Il est attribué pour la première fois en 1985[1]. Les participants, qui ne doivent pas encore publier de fiction chez un éditeur reconnu[2], soumettent un texte pour un jeune public, soit pour la catégorie 5-9 ans, soit pour celle de 10 ans et plus. Les lauréats reçoivent une bourse et voient leurs textes publiés et illustrés dans la revue Lurelu[3].
+Le concours est créé avec l'objectif d'encourager la relève en littérature jeunesse. Il est attribué pour la première fois en 1985. Les participants, qui ne doivent pas encore publier de fiction chez un éditeur reconnu, soumettent un texte pour un jeune public, soit pour la catégorie 5-9 ans, soit pour celle de 10 ans et plus. Les lauréats reçoivent une bourse et voient leurs textes publiés et illustrés dans la revue Lurelu.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Concours_litt%C3%A9raire_Lurelu</t>
+          <t>Concours_littéraire_Lurelu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-9 ans
-2022 - Alexandra Lachapelle, Quelques centimètres au cœur (paru dans Lurelu Vol. 45, no 3 hiver 2023).
+          <t>5-9 ans</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022 - Alexandra Lachapelle, Quelques centimètres au cœur (paru dans Lurelu Vol. 45, no 3 hiver 2023).
 2021 - Sylvie Bonneau, Quatre ricochets sur l’eau (paru dans Lurelu Vol. 44, no 3, hiver 2022).
 2020 - Céline Jodoin, Le phare (paru dans Lurelu Vol. 43, no 3, hiver 2021).
 2019 - Pierre Mario Mourat, Ça chauffe pour Caruso (paru dans Lurelu Vol. 42, no 3, hiver 2020).
@@ -539,8 +556,43 @@
 2002 - Valérie Borde, Le nid d’Hector Persil (paru dans Lurelu Vol. 26, no 1, printemps-été 2003).
 2001 - Nancy Montour, L'île aux secrets (paru dans Lurelu Vol. 24, no 3, hiver 2002).
 2001 - Julie Saindon, La plume de Joséphina Brind'amour (paru dans Lurelu Vol. 24, no 3, hiver 2002).
-10 ans +
-2022 - Céline Jodoin, Le chalet (paru dans Lurelu Vol. 45, no 3 hiver 2023).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10 ans +</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022 - Céline Jodoin, Le chalet (paru dans Lurelu Vol. 45, no 3 hiver 2023).
 2021 - Mélissa Meunier, Un déménagement à dos de poisson volant (paru dans Lurelu Vol. 44, no 3, hiver 2022).
 2020 - Hélène Lebeuf, La plus grande richesse ( paru dans Lurelu Vol. 43, no 3, hiver 2021).
 2019 - Frédéric Hardel, Il fait froid quand on regarde là où il n’y a pas de chaleur (paru dans Lurelu Vol. 42, no 3, hiver 2020).
@@ -562,28 +614,308 @@
 2003 - Geneviève Mitchell, Des yeux d’artiste (paru dans Lurelu Vol. 26, no 3, hiver 2004).
 2002 - Geneviève Dallaire, La vie comme les couleurs de l’arc-en-ciel (paru dans Lurelu Vol. 26, no 1, printemps-été 2003).
 2001 - Louise Binette, La symphonie du perroquet (paru dans Lurelu Vol. 25, no 1, printemps-été 2002).
-5-8 ans
-2000 - Estelle Whittom, Le petit miroir de tante Yvonne (paru dans Lurelu Vol. 24, no 1, printemps-été 2001)
-6-10 ans
-1999 - Jean Robert Deronzier, Le seigneur des Carpathes (paru dans Lurelu Vol. 23, no 1, printemps-été 2000).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5-8 ans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2000 - Estelle Whittom, Le petit miroir de tante Yvonne (paru dans Lurelu Vol. 24, no 1, printemps-été 2001)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6-10 ans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1999 - Jean Robert Deronzier, Le seigneur des Carpathes (paru dans Lurelu Vol. 23, no 1, printemps-été 2000).
 1998 - Nicole Davidson, Samuel et l'odeur de pipi de chat (paru dans Lurelu Vol. 21, no 3, hiver 1999).
 1997 - Martine Pratte, Une rencontre pas ordinaire (paru dans Lurelu Vol. 21, no 1, printemps-été 1998).
 1996 - Manon Plouffe, Casimir Mimuni (paru dans Lurelu Vol. 19, no 3, hiver 1997).
-8-12 ans
-2000 - Anne Jutras, Voyage au royaume des métamorphoses (paru dans Lurelu Vol. 23, no 3, hiver 2001).
-10-14 ans
-1999 - Sophie Vigneault, La sorcière du manoir Grugeburger (paru dans Lurelu Vol. 22, no 3, hiver 2000).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8-12 ans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2000 - Anne Jutras, Voyage au royaume des métamorphoses (paru dans Lurelu Vol. 23, no 3, hiver 2001).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10-14 ans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1999 - Sophie Vigneault, La sorcière du manoir Grugeburger (paru dans Lurelu Vol. 22, no 3, hiver 2000).
 1998 - Guylaine Saint-Pierre, Le cœur sur la main (paru dans Lurelu Vol. 21, no 3, hiver 1999).
 1997 - Paule Bernier, Émile (paru dans Lurelu Vol. 21, no 2, automne 1998).
 1996 - Mélissa Anctil, Le parfum de madame Hétu (paru dans Lurelu Vol. 20, no 1, printemps-été 1997).
-12 ans
-2000 - Monique Giroux, Gabrielle et Marie (paru dans Lurelu Vol. 24, no 2, automne 2001).
-Enfants
-1995 - Andrée-Anne Gratton, Jeanot, enfant unique (paru dans Lurelu Vol. 19, no 1, printemps-été 1996).
-Pré-ados &amp; ados
-1995 - Sandra Dussault, Aventures d'un vert (paru dans Lurelu Vol. 18, no 3, hiver 1996).
-Sans catégorie
-1994 - Louise Tondreau-Levert, Le grand lit de la petite Mimi (paru dans Lurelu Vol. 17, no 3, hiver 1995).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12 ans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2000 - Monique Giroux, Gabrielle et Marie (paru dans Lurelu Vol. 24, no 2, automne 2001).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Enfants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1995 - Andrée-Anne Gratton, Jeanot, enfant unique (paru dans Lurelu Vol. 19, no 1, printemps-été 1996).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pré-ados &amp; ados</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1995 - Sandra Dussault, Aventures d'un vert (paru dans Lurelu Vol. 18, no 3, hiver 1996).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_Lurelu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_Lurelu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lauréats du 1re prix[4]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sans catégorie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1994 - Louise Tondreau-Levert, Le grand lit de la petite Mimi (paru dans Lurelu Vol. 17, no 3, hiver 1995).
 1993 - Marielle Paradis, Sonate pour Victor (paru dans Lurelu Vol. 16, no 3, hiver 1994).
 1992 - Alain M. Bergeron, À la recherche des parents perdus (paru dans Lurelu Vol. 15, no 3, hiver 1993).
 1991 - Marc Auger, L'attaque des Comanches (paru dans Lurelu Vol. 14, no 3, hiver 1992).
